--- a/kartenabfolgen.xlsx
+++ b/kartenabfolgen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b45736fdd8bb3aa4/Laptop/Dokumente/ETH/Semester_3/Psychologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B56B9E84-2BF3-40A1-9ED8-9B685CB58FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52FCDF75-1C0E-43CF-B2EA-D56286453860}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{B56B9E84-2BF3-40A1-9ED8-9B685CB58FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7683CE3-94AD-4E04-BBB8-6E63A114DE66}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" xr2:uid="{8205E559-DC8E-4887-9D0D-0E0E7A555E88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8205E559-DC8E-4887-9D0D-0E0E7A555E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiel 1" sheetId="1" r:id="rId1"/>
@@ -431,13 +431,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,6 +473,13 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,41 +543,41 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -894,138 +894,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD17C3-C6F9-4521-8D53-460EA020F265}">
   <dimension ref="A1:BD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL15" zoomScale="35" workbookViewId="0">
-      <selection activeCell="AV36" sqref="AV36"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="35" workbookViewId="0">
+      <selection activeCell="S25" sqref="P21:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:54" ht="14.45" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:55">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:55">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,254 +1631,310 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:55">
+      <c r="B20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:54">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:54">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="25" spans="1:54">
-      <c r="B25" s="17" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:55">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:55" ht="15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="BA22" s="19"/>
+    </row>
+    <row r="23" spans="1:55" ht="15">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="BA23" s="19"/>
+    </row>
+    <row r="24" spans="1:55" ht="15">
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="BA24" s="19"/>
+    </row>
+    <row r="25" spans="1:55" ht="15">
+      <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:54">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:54">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:54">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+    </row>
+    <row r="26" spans="1:55" ht="15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="1:55">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:55" ht="15">
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3" t="s">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3" t="s">
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3" t="s">
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3" t="s">
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-    </row>
-    <row r="29" spans="1:54">
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+    </row>
+    <row r="29" spans="1:55" ht="15">
       <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="19"/>
+      <c r="L29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3" t="s">
+      <c r="V29" s="19"/>
+      <c r="W29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AB29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AE29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF29" s="3" t="s">
+      <c r="AF29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AG29" s="3" t="s">
+      <c r="AG29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH29" s="3" t="s">
+      <c r="AH29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AI29" s="3" t="s">
+      <c r="AI29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AJ29" s="3" t="s">
+      <c r="AJ29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3" t="s">
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="3" t="s">
+      <c r="AM29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AN29" s="3" t="s">
+      <c r="AN29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AO29" s="3" t="s">
+      <c r="AO29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AP29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AQ29" s="3" t="s">
+      <c r="AQ29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AR29" s="3" t="s">
+      <c r="AR29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AS29" s="3" t="s">
+      <c r="AS29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3" t="s">
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AV29" s="3" t="s">
+      <c r="AV29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AW29" s="3" t="s">
+      <c r="AW29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AX29" s="3" t="s">
+      <c r="AX29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AY29" s="3" t="s">
+      <c r="AY29" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AZ29" s="3" t="s">
+      <c r="AZ29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BA29" s="3" t="s">
+      <c r="BA29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="BB29" s="3" t="s">
+      <c r="BB29" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:54">
+      <c r="BC29" s="19"/>
+    </row>
+    <row r="30" spans="1:55" ht="15">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -1888,298 +1944,300 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="F30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="M30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="T30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="U30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3" t="s">
+      <c r="V30" s="19"/>
+      <c r="W30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="X30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Y30" s="3" t="s">
+      <c r="Z30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="AA30" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AA30" s="3" t="s">
+      <c r="AB30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AB30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM30" s="3" t="s">
+      <c r="AR30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AN30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3" t="s">
+      <c r="AW30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AV30" s="3" t="s">
+      <c r="AX30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AW30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY30" s="3" t="s">
+      <c r="AY30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AZ30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:54">
+      <c r="BC30" s="19"/>
+    </row>
+    <row r="31" spans="1:55" ht="15">
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="T31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="U31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="4" t="s">
+      <c r="V31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="W31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="X31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="Y31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="3" t="s">
+      <c r="Z31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AA31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB31" s="3" t="s">
+      <c r="AB31" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3" t="s">
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AE31" s="3" t="s">
+      <c r="AG31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AF31" s="3" t="s">
+      <c r="AH31" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AG31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH31" s="3" t="s">
+      <c r="AI31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ31" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AI31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3" t="s">
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM31" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AM31" s="3" t="s">
+      <c r="AN31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AN31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO31" s="3" t="s">
+      <c r="AO31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="AP31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AQ31" s="3" t="s">
+      <c r="AR31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AR31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT31" s="4" t="s">
+      <c r="AS31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AU31" s="3" t="s">
+      <c r="AU31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AV31" s="3" t="s">
+      <c r="AX31" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AW31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY31" s="3" t="s">
+      <c r="AY31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AZ31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB31" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54">
+      <c r="BC31" s="19"/>
+    </row>
+    <row r="32" spans="1:55" ht="15">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2189,167 +2247,168 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3" t="s">
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="T32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="U32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="19"/>
+      <c r="W32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y32" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE32" s="3" t="s">
+      <c r="AI32" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AF32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH32" s="3" t="s">
+      <c r="AJ32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AI32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3" t="s">
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AM32" s="3" t="s">
+      <c r="AN32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AN32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO32" s="3" t="s">
+      <c r="AO32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AP32" s="3" t="s">
+      <c r="AP32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AQ32" s="3" t="s">
+      <c r="AR32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AR32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS32" s="3" t="s">
+      <c r="AS32" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3" t="s">
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV32" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AV32" s="3" t="s">
+      <c r="AX32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AW32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY32" s="3" t="s">
+      <c r="AY32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AZ32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB32" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="BC32" s="19"/>
     </row>
     <row r="34" spans="2:54">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="2:54">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="2:54">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="AU36" s="6"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="AU36" s="4"/>
     </row>
     <row r="37" spans="2:54">
       <c r="C37" t="s">
@@ -2795,7 +2854,7 @@
       <c r="AS40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AT40" s="7" t="s">
+      <c r="AT40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AU40" s="2" t="s">
@@ -2968,25 +3027,25 @@
       </c>
     </row>
     <row r="44" spans="2:54">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="2:54">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:54">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="AU46" s="6"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="AU46" s="4"/>
     </row>
     <row r="47" spans="2:54">
       <c r="C47" t="s">
@@ -3431,7 +3490,7 @@
       <c r="AS50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AT50" s="7" t="s">
+      <c r="AT50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AU50" s="2" t="s">
@@ -3604,25 +3663,25 @@
       </c>
     </row>
     <row r="55" spans="1:54" ht="28.5">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:54">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:54">
       <c r="C57" t="s">
@@ -4223,50 +4282,50 @@
       </c>
     </row>
     <row r="64" spans="1:54">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:54">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:54">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="69" spans="1:54">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:54">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:54">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:54">
       <c r="B72" t="s">
@@ -4441,7 +4500,7 @@
       <c r="C74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -4473,7 +4532,7 @@
       <c r="O74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="P74" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Q74" s="2" t="s">
@@ -4532,7 +4591,7 @@
       <c r="AJ74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AK74" s="7" t="s">
+      <c r="AK74" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AL74" s="2" t="s">
@@ -4599,7 +4658,7 @@
       <c r="F75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -4640,7 +4699,7 @@
       <c r="U75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V75" s="7" t="s">
+      <c r="V75" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W75" s="2" t="s">
@@ -4708,7 +4767,7 @@
       <c r="AS75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AT75" s="7" t="s">
+      <c r="AT75" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AU75" s="2" t="s">
@@ -4760,7 +4819,7 @@
       <c r="J76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L76" s="2" t="s">
@@ -4810,7 +4869,7 @@
       <c r="AB76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC76" s="7" t="s">
+      <c r="AC76" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AD76" s="2" t="s">
@@ -4886,24 +4945,24 @@
       </c>
     </row>
     <row r="79" spans="1:54">
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:54">
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="2:56">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="2:56">
       <c r="B82" t="s">
@@ -5507,24 +5566,24 @@
       </c>
     </row>
     <row r="89" spans="2:56">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="2:56">
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="2:56">
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="2:56">
       <c r="B92" s="2" t="s">
@@ -5757,7 +5816,7 @@
       <c r="C94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -5789,7 +5848,7 @@
       <c r="O94" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P94" s="7" t="s">
+      <c r="P94" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Q94" s="2" t="s">
@@ -5848,7 +5907,7 @@
       <c r="AJ94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AK94" s="7" t="s">
+      <c r="AK94" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AL94" s="2" t="s">
@@ -5919,7 +5978,7 @@
       <c r="F95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -5960,7 +6019,7 @@
       <c r="U95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V95" s="7" t="s">
+      <c r="V95" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W95" s="2" t="s">
@@ -6028,7 +6087,7 @@
       <c r="AS95" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AT95" s="7" t="s">
+      <c r="AT95" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AU95" s="2" t="s">
@@ -6084,7 +6143,7 @@
       <c r="J96" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="2" t="s">
@@ -6134,7 +6193,7 @@
       <c r="AB96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC96" s="7" t="s">
+      <c r="AC96" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AD96" s="2" t="s">
@@ -6247,217 +6306,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="L8" s="19" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="L8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="Q8" s="19" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="Q8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="V8" s="19" t="s">
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="V8" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="AA8" s="19" t="s">
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="AA8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AB10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AC10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6465,7 +6524,7 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -6474,7 +6533,7 @@
       <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
@@ -6483,7 +6542,7 @@
       <c r="L11" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N11" t="s">
@@ -6492,7 +6551,7 @@
       <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="S11" t="s">
@@ -6501,7 +6560,7 @@
       <c r="V11" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="W11" s="6" t="s">
         <v>75</v>
       </c>
       <c r="X11" t="s">
@@ -6510,7 +6569,7 @@
       <c r="AA11" t="s">
         <v>101</v>
       </c>
-      <c r="AB11" s="8" t="s">
+      <c r="AB11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC11" t="s">
@@ -6518,58 +6577,58 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" thickTop="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="X12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB12" s="11" t="s">
+      <c r="AB12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6577,7 +6636,7 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D13" t="s">
@@ -6586,7 +6645,7 @@
       <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>62</v>
       </c>
       <c r="I13" t="s">
@@ -6595,7 +6654,7 @@
       <c r="L13" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="N13" t="s">
@@ -6604,7 +6663,7 @@
       <c r="Q13" t="s">
         <v>65</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="6" t="s">
         <v>102</v>
       </c>
       <c r="S13" t="s">
@@ -6613,7 +6672,7 @@
       <c r="V13" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="W13" s="6" t="s">
         <v>103</v>
       </c>
       <c r="X13" t="s">
@@ -6622,7 +6681,7 @@
       <c r="AA13" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AB13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AC13" t="s">
@@ -6630,58 +6689,58 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="15" thickTop="1">
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="11" t="s">
+      <c r="AB14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AC14" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6689,7 +6748,7 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
@@ -6698,7 +6757,7 @@
       <c r="G15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I15" t="s">
@@ -6707,7 +6766,7 @@
       <c r="L15" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N15" t="s">
@@ -6716,7 +6775,7 @@
       <c r="Q15" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="S15" t="s">
@@ -6725,7 +6784,7 @@
       <c r="V15" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="8" t="s">
+      <c r="W15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="X15" t="s">
@@ -6734,7 +6793,7 @@
       <c r="AA15" t="s">
         <v>32</v>
       </c>
-      <c r="AB15" s="8" t="s">
+      <c r="AB15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AC15" t="s">
@@ -6745,7 +6804,7 @@
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
@@ -6754,7 +6813,7 @@
       <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -6763,7 +6822,7 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
@@ -6772,7 +6831,7 @@
       <c r="Q16" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="S16" t="s">
@@ -6781,7 +6840,7 @@
       <c r="V16" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="8" t="s">
+      <c r="W16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="X16" t="s">
@@ -6790,7 +6849,7 @@
       <c r="AA16" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="8" t="s">
+      <c r="AB16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AC16" t="s">
@@ -6798,58 +6857,58 @@
       </c>
     </row>
     <row r="17" spans="2:29" ht="15" thickTop="1">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="N17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" s="11" t="s">
+      <c r="V17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="X17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AA17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AC17" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6857,7 +6916,7 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
@@ -6866,7 +6925,7 @@
       <c r="G18" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
@@ -6875,7 +6934,7 @@
       <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N18" t="s">
@@ -6884,7 +6943,7 @@
       <c r="Q18" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="S18" t="s">
@@ -6893,7 +6952,7 @@
       <c r="V18" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="8" t="s">
+      <c r="W18" s="6" t="s">
         <v>83</v>
       </c>
       <c r="X18" t="s">
@@ -6902,7 +6961,7 @@
       <c r="AA18" t="s">
         <v>81</v>
       </c>
-      <c r="AB18" s="8" t="s">
+      <c r="AB18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AC18" t="s">
@@ -6913,7 +6972,7 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D19" t="s">
@@ -6922,7 +6981,7 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I19" t="s">
@@ -6931,7 +6990,7 @@
       <c r="L19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N19" t="s">
@@ -6940,7 +6999,7 @@
       <c r="Q19" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="6" t="s">
         <v>85</v>
       </c>
       <c r="S19" t="s">
@@ -6949,7 +7008,7 @@
       <c r="V19" t="s">
         <v>83</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="6" t="s">
         <v>85</v>
       </c>
       <c r="X19" t="s">
@@ -6958,7 +7017,7 @@
       <c r="AA19" t="s">
         <v>66</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AB19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AC19" t="s">
@@ -6969,7 +7028,7 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D20" t="s">
@@ -6978,7 +7037,7 @@
       <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
@@ -6987,7 +7046,7 @@
       <c r="L20" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N20" t="s">
@@ -6996,7 +7055,7 @@
       <c r="Q20" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="S20" t="s">
@@ -7005,7 +7064,7 @@
       <c r="V20" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="X20" t="s">
@@ -7014,7 +7073,7 @@
       <c r="AA20" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" s="8" t="s">
+      <c r="AB20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="AC20" t="s">
@@ -7022,55 +7081,55 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="15" thickTop="1">
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="11" t="s">
+      <c r="Q21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W21" s="11" t="s">
+      <c r="V21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AA21" t="s">
         <v>62</v>
       </c>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AC21" t="s">
@@ -7081,7 +7140,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D22" t="s">
@@ -7090,7 +7149,7 @@
       <c r="G22" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I22" t="s">
@@ -7099,7 +7158,7 @@
       <c r="L22" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="N22" t="s">
@@ -7108,7 +7167,7 @@
       <c r="Q22" t="s">
         <v>70</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="S22" t="s">
@@ -7117,7 +7176,7 @@
       <c r="V22" t="s">
         <v>52</v>
       </c>
-      <c r="W22" s="8" t="s">
+      <c r="W22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="X22" t="s">
@@ -7126,7 +7185,7 @@
       <c r="AA22" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="8" t="s">
+      <c r="AB22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AC22" t="s">
@@ -7137,7 +7196,7 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
@@ -7146,7 +7205,7 @@
       <c r="G23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
@@ -7155,7 +7214,7 @@
       <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="6" t="s">
         <v>83</v>
       </c>
       <c r="N23" t="s">
@@ -7164,7 +7223,7 @@
       <c r="Q23" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S23" t="s">
@@ -7173,7 +7232,7 @@
       <c r="V23" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="8" t="s">
+      <c r="W23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X23" t="s">
@@ -7182,7 +7241,7 @@
       <c r="AA23" t="s">
         <v>44</v>
       </c>
-      <c r="AB23" s="8" t="s">
+      <c r="AB23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AC23" t="s">
@@ -7193,7 +7252,7 @@
       <c r="B24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D24" t="s">
@@ -7202,7 +7261,7 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I24" t="s">
@@ -7211,7 +7270,7 @@
       <c r="L24" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N24" t="s">
@@ -7220,7 +7279,7 @@
       <c r="Q24" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S24" t="s">
@@ -7229,7 +7288,7 @@
       <c r="V24" t="s">
         <v>72</v>
       </c>
-      <c r="W24" s="8" t="s">
+      <c r="W24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="X24" t="s">
@@ -7238,7 +7297,7 @@
       <c r="AA24" t="s">
         <v>30</v>
       </c>
-      <c r="AB24" s="8" t="s">
+      <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" t="s">
@@ -7249,7 +7308,7 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D25" t="s">
@@ -7258,7 +7317,7 @@
       <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>79</v>
       </c>
       <c r="I25" t="s">
@@ -7267,7 +7326,7 @@
       <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N25" t="s">
@@ -7276,7 +7335,7 @@
       <c r="Q25" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="S25" t="s">
@@ -7285,7 +7344,7 @@
       <c r="V25" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="8" t="s">
+      <c r="W25" s="6" t="s">
         <v>45</v>
       </c>
       <c r="X25" t="s">
@@ -7294,7 +7353,7 @@
       <c r="AA25" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="8" t="s">
+      <c r="AB25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AC25" t="s">
@@ -7302,58 +7361,58 @@
       </c>
     </row>
     <row r="26" spans="2:29" ht="15" thickTop="1">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V26" s="10" t="s">
+      <c r="V26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="X26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="10" t="s">
+      <c r="AA26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7361,7 +7420,7 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D27" t="s">
@@ -7370,7 +7429,7 @@
       <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I27" t="s">
@@ -7379,7 +7438,7 @@
       <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="N27" t="s">
@@ -7388,7 +7447,7 @@
       <c r="Q27" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="S27" t="s">
@@ -7397,7 +7456,7 @@
       <c r="V27" t="s">
         <v>44</v>
       </c>
-      <c r="W27" s="8" t="s">
+      <c r="W27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="X27" t="s">
@@ -7406,7 +7465,7 @@
       <c r="AA27" t="s">
         <v>72</v>
       </c>
-      <c r="AB27" s="8" t="s">
+      <c r="AB27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AC27" t="s">
@@ -7417,7 +7476,7 @@
       <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D28" t="s">
@@ -7426,7 +7485,7 @@
       <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="I28" t="s">
@@ -7435,7 +7494,7 @@
       <c r="L28" t="s">
         <v>66</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="6" t="s">
         <v>84</v>
       </c>
       <c r="N28" t="s">
@@ -7444,7 +7503,7 @@
       <c r="Q28" t="s">
         <v>63</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="6" t="s">
         <v>66</v>
       </c>
       <c r="S28" t="s">
@@ -7453,7 +7512,7 @@
       <c r="V28" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="X28" t="s">
@@ -7462,7 +7521,7 @@
       <c r="AA28" t="s">
         <v>64</v>
       </c>
-      <c r="AB28" s="8" t="s">
+      <c r="AB28" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AC28" t="s">
@@ -7473,7 +7532,7 @@
       <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D29" t="s">
@@ -7482,7 +7541,7 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>82</v>
       </c>
       <c r="I29" t="s">
@@ -7491,7 +7550,7 @@
       <c r="L29" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N29" t="s">
@@ -7500,7 +7559,7 @@
       <c r="Q29" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="S29" t="s">
@@ -7509,7 +7568,7 @@
       <c r="V29" t="s">
         <v>49</v>
       </c>
-      <c r="W29" s="8" t="s">
+      <c r="W29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="X29" t="s">
@@ -7518,7 +7577,7 @@
       <c r="AA29" t="s">
         <v>25</v>
       </c>
-      <c r="AB29" s="8" t="s">
+      <c r="AB29" s="6" t="s">
         <v>82</v>
       </c>
       <c r="AC29" t="s">
@@ -7529,7 +7588,7 @@
       <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D30" t="s">
@@ -7538,7 +7597,7 @@
       <c r="G30" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="s">
@@ -7547,7 +7606,7 @@
       <c r="L30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N30" t="s">
@@ -7556,7 +7615,7 @@
       <c r="Q30" t="s">
         <v>68</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="S30" t="s">
@@ -7565,7 +7624,7 @@
       <c r="V30" t="s">
         <v>23</v>
       </c>
-      <c r="W30" s="8" t="s">
+      <c r="W30" s="6" t="s">
         <v>79</v>
       </c>
       <c r="X30" t="s">
@@ -7574,7 +7633,7 @@
       <c r="AA30" t="s">
         <v>44</v>
       </c>
-      <c r="AB30" s="8" t="s">
+      <c r="AB30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AC30" t="s">
@@ -7585,7 +7644,7 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D31" t="s">
@@ -7594,7 +7653,7 @@
       <c r="G31" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I31" t="s">
@@ -7603,7 +7662,7 @@
       <c r="L31" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="6" t="s">
         <v>73</v>
       </c>
       <c r="N31" t="s">
@@ -7612,7 +7671,7 @@
       <c r="Q31" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S31" t="s">
@@ -7621,7 +7680,7 @@
       <c r="V31" t="s">
         <v>63</v>
       </c>
-      <c r="W31" s="8" t="s">
+      <c r="W31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="X31" t="s">
@@ -7630,7 +7689,7 @@
       <c r="AA31" t="s">
         <v>68</v>
       </c>
-      <c r="AB31" s="8" t="s">
+      <c r="AB31" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AC31" t="s">
@@ -7638,58 +7697,58 @@
       </c>
     </row>
     <row r="32" spans="2:29" ht="15" thickTop="1">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="10" t="s">
+      <c r="I32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="10" t="s">
+      <c r="S32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W32" s="11" t="s">
+      <c r="V32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="X32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="10" t="s">
+      <c r="AA32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AB32" s="11" t="s">
+      <c r="AB32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC32" s="10" t="s">
+      <c r="AC32" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7697,7 +7756,7 @@
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D33" t="s">
@@ -7706,7 +7765,7 @@
       <c r="G33" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I33" t="s">
@@ -7715,7 +7774,7 @@
       <c r="L33" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N33" t="s">
@@ -7724,7 +7783,7 @@
       <c r="Q33" t="s">
         <v>29</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S33" t="s">
@@ -7733,7 +7792,7 @@
       <c r="V33" t="s">
         <v>49</v>
       </c>
-      <c r="W33" s="8" t="s">
+      <c r="W33" s="6" t="s">
         <v>48</v>
       </c>
       <c r="X33" t="s">
@@ -7742,7 +7801,7 @@
       <c r="AA33" t="s">
         <v>60</v>
       </c>
-      <c r="AB33" s="8" t="s">
+      <c r="AB33" s="6" t="s">
         <v>77</v>
       </c>
       <c r="AC33" t="s">
@@ -7753,7 +7812,7 @@
       <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D34" t="s">
@@ -7762,7 +7821,7 @@
       <c r="G34" t="s">
         <v>77</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I34" t="s">
@@ -7771,7 +7830,7 @@
       <c r="L34" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N34" t="s">
@@ -7780,7 +7839,7 @@
       <c r="Q34" t="s">
         <v>49</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="6" t="s">
         <v>48</v>
       </c>
       <c r="S34" t="s">
@@ -7789,7 +7848,7 @@
       <c r="V34" t="s">
         <v>30</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="W34" s="6" t="s">
         <v>71</v>
       </c>
       <c r="X34" t="s">
@@ -7798,7 +7857,7 @@
       <c r="AA34" t="s">
         <v>21</v>
       </c>
-      <c r="AB34" s="8" t="s">
+      <c r="AB34" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AC34" t="s">
@@ -7809,7 +7868,7 @@
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
@@ -7818,7 +7877,7 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="I35" t="s">
@@ -7827,7 +7886,7 @@
       <c r="L35" t="s">
         <v>50</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="6" t="s">
         <v>77</v>
       </c>
       <c r="N35" t="s">
@@ -7836,7 +7895,7 @@
       <c r="Q35" t="s">
         <v>30</v>
       </c>
-      <c r="R35" s="8" t="s">
+      <c r="R35" s="6" t="s">
         <v>71</v>
       </c>
       <c r="S35" t="s">
@@ -7845,7 +7904,7 @@
       <c r="V35" t="s">
         <v>84</v>
       </c>
-      <c r="W35" s="8" t="s">
+      <c r="W35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="X35" t="s">
@@ -7854,7 +7913,7 @@
       <c r="AA35" t="s">
         <v>70</v>
       </c>
-      <c r="AB35" s="8" t="s">
+      <c r="AB35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="AC35" t="s">
@@ -7865,7 +7924,7 @@
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
@@ -7874,7 +7933,7 @@
       <c r="G36" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="I36" t="s">
@@ -7883,7 +7942,7 @@
       <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="N36" t="s">
@@ -7892,7 +7951,7 @@
       <c r="Q36" t="s">
         <v>84</v>
       </c>
-      <c r="R36" s="8" t="s">
+      <c r="R36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="S36" t="s">
@@ -7901,7 +7960,7 @@
       <c r="V36" t="s">
         <v>26</v>
       </c>
-      <c r="W36" s="8" t="s">
+      <c r="W36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="X36" t="s">
@@ -7910,7 +7969,7 @@
       <c r="AA36" t="s">
         <v>36</v>
       </c>
-      <c r="AB36" s="8" t="s">
+      <c r="AB36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AC36" t="s">
@@ -7921,7 +7980,7 @@
       <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D37" t="s">
@@ -7930,7 +7989,7 @@
       <c r="G37" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>31</v>
       </c>
       <c r="I37" t="s">
@@ -7939,7 +7998,7 @@
       <c r="L37" t="s">
         <v>71</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N37" t="s">
@@ -7948,7 +8007,7 @@
       <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="R37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
@@ -7957,7 +8016,7 @@
       <c r="V37" t="s">
         <v>86</v>
       </c>
-      <c r="W37" s="8" t="s">
+      <c r="W37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="X37" t="s">
@@ -7966,7 +8025,7 @@
       <c r="AA37" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="8" t="s">
+      <c r="AB37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="AC37" t="s">
@@ -7977,7 +8036,7 @@
       <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D38" t="s">
@@ -7986,7 +8045,7 @@
       <c r="G38" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I38" t="s">
@@ -7995,7 +8054,7 @@
       <c r="L38" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="6" t="s">
         <v>79</v>
       </c>
       <c r="N38" t="s">
@@ -8004,7 +8063,7 @@
       <c r="Q38" t="s">
         <v>86</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="R38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="S38" t="s">
@@ -8013,7 +8072,7 @@
       <c r="V38" t="s">
         <v>60</v>
       </c>
-      <c r="W38" s="8" t="s">
+      <c r="W38" s="6" t="s">
         <v>77</v>
       </c>
       <c r="X38" t="s">
@@ -8022,7 +8081,7 @@
       <c r="AA38" t="s">
         <v>29</v>
       </c>
-      <c r="AB38" s="8" t="s">
+      <c r="AB38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AC38" t="s">
@@ -8030,58 +8089,58 @@
       </c>
     </row>
     <row r="39" spans="2:29" ht="15" thickTop="1">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="Q39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S39" s="10" t="s">
+      <c r="S39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="11" t="s">
+      <c r="V39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="X39" s="10" t="s">
+      <c r="X39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AA39" s="10" t="s">
+      <c r="AA39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AB39" s="11" t="s">
+      <c r="AB39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AC39" s="10" t="s">
+      <c r="AC39" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8089,7 +8148,7 @@
       <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D40" t="s">
@@ -8098,7 +8157,7 @@
       <c r="G40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I40" t="s">
@@ -8107,7 +8166,7 @@
       <c r="L40" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N40" t="s">
@@ -8116,7 +8175,7 @@
       <c r="Q40" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="S40" t="s">
@@ -8125,7 +8184,7 @@
       <c r="V40" t="s">
         <v>70</v>
       </c>
-      <c r="W40" s="8" t="s">
+      <c r="W40" s="6" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
@@ -8134,7 +8193,7 @@
       <c r="AA40" t="s">
         <v>49</v>
       </c>
-      <c r="AB40" s="8" t="s">
+      <c r="AB40" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AC40" t="s">
@@ -8145,7 +8204,7 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D41" t="s">
@@ -8154,7 +8213,7 @@
       <c r="G41" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>79</v>
       </c>
       <c r="I41" t="s">
@@ -8163,7 +8222,7 @@
       <c r="L41" t="s">
         <v>46</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N41" t="s">
@@ -8172,7 +8231,7 @@
       <c r="Q41" t="s">
         <v>63</v>
       </c>
-      <c r="R41" s="8" t="s">
+      <c r="R41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="S41" t="s">
@@ -8181,7 +8240,7 @@
       <c r="V41" t="s">
         <v>36</v>
       </c>
-      <c r="W41" s="8" t="s">
+      <c r="W41" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X41" t="s">
@@ -8190,7 +8249,7 @@
       <c r="AA41" t="s">
         <v>23</v>
       </c>
-      <c r="AB41" s="8" t="s">
+      <c r="AB41" s="6" t="s">
         <v>79</v>
       </c>
       <c r="AC41" t="s">
@@ -8201,7 +8260,7 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D42" t="s">
@@ -8210,7 +8269,7 @@
       <c r="G42" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I42" t="s">
@@ -8219,7 +8278,7 @@
       <c r="L42" t="s">
         <v>47</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="N42" t="s">
@@ -8228,7 +8287,7 @@
       <c r="Q42" t="s">
         <v>44</v>
       </c>
-      <c r="R42" s="8" t="s">
+      <c r="R42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="S42" t="s">
@@ -8237,7 +8296,7 @@
       <c r="V42" t="s">
         <v>41</v>
       </c>
-      <c r="W42" s="8" t="s">
+      <c r="W42" s="6" t="s">
         <v>56</v>
       </c>
       <c r="X42" t="s">
@@ -8246,7 +8305,7 @@
       <c r="AA42" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="8" t="s">
+      <c r="AB42" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AC42" t="s">
@@ -8257,7 +8316,7 @@
       <c r="B43" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="s">
@@ -8266,7 +8325,7 @@
       <c r="G43" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>79</v>
       </c>
       <c r="I43" t="s">
@@ -8275,7 +8334,7 @@
       <c r="L43" t="s">
         <v>79</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="6" t="s">
         <v>70</v>
       </c>
       <c r="N43" t="s">
@@ -8284,7 +8343,7 @@
       <c r="Q43" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="8" t="s">
+      <c r="R43" s="6" t="s">
         <v>59</v>
       </c>
       <c r="S43" t="s">
@@ -8293,7 +8352,7 @@
       <c r="V43" t="s">
         <v>29</v>
       </c>
-      <c r="W43" s="8" t="s">
+      <c r="W43" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X43" t="s">
@@ -8302,7 +8361,7 @@
       <c r="AA43" t="s">
         <v>30</v>
       </c>
-      <c r="AB43" s="8" t="s">
+      <c r="AB43" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AC43" t="s">
@@ -8313,7 +8372,7 @@
       <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
@@ -8322,7 +8381,7 @@
       <c r="G44" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I44" t="s">
@@ -8331,7 +8390,7 @@
       <c r="L44" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N44" t="s">
@@ -8340,7 +8399,7 @@
       <c r="Q44" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="6" t="s">
         <v>51</v>
       </c>
       <c r="S44" t="s">
@@ -8349,7 +8408,7 @@
       <c r="V44" t="s">
         <v>30</v>
       </c>
-      <c r="W44" s="8" t="s">
+      <c r="W44" s="6" t="s">
         <v>52</v>
       </c>
       <c r="X44" t="s">
@@ -8358,7 +8417,7 @@
       <c r="AA44" t="s">
         <v>84</v>
       </c>
-      <c r="AB44" s="8" t="s">
+      <c r="AB44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AC44" t="s">
@@ -8369,7 +8428,7 @@
       <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D45" t="s">
@@ -8378,7 +8437,7 @@
       <c r="G45" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I45" t="s">
@@ -8387,7 +8446,7 @@
       <c r="L45" t="s">
         <v>67</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="6" t="s">
         <v>55</v>
       </c>
       <c r="N45" t="s">
@@ -8396,7 +8455,7 @@
       <c r="Q45" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="8" t="s">
+      <c r="R45" s="6" t="s">
         <v>66</v>
       </c>
       <c r="S45" t="s">
@@ -8405,7 +8464,7 @@
       <c r="V45" t="s">
         <v>63</v>
       </c>
-      <c r="W45" s="8" t="s">
+      <c r="W45" s="6" t="s">
         <v>66</v>
       </c>
       <c r="X45" t="s">
@@ -8414,7 +8473,7 @@
       <c r="AA45" t="s">
         <v>86</v>
       </c>
-      <c r="AB45" s="8" t="s">
+      <c r="AB45" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AC45" t="s">
@@ -8425,7 +8484,7 @@
       <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
@@ -8434,7 +8493,7 @@
       <c r="G46" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I46" t="s">
@@ -8443,7 +8502,7 @@
       <c r="L46" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="6" t="s">
         <v>78</v>
       </c>
       <c r="N46" t="s">
@@ -8452,7 +8511,7 @@
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="R46" s="6" t="s">
         <v>102</v>
       </c>
       <c r="S46" t="s">
@@ -8461,7 +8520,7 @@
       <c r="V46" t="s">
         <v>84</v>
       </c>
-      <c r="W46" s="8" t="s">
+      <c r="W46" s="6" t="s">
         <v>36</v>
       </c>
       <c r="X46" t="s">
@@ -8470,7 +8529,7 @@
       <c r="AA46" t="s">
         <v>49</v>
       </c>
-      <c r="AB46" s="8" t="s">
+      <c r="AB46" s="6" t="s">
         <v>82</v>
       </c>
       <c r="AC46" t="s">
@@ -8478,58 +8537,58 @@
       </c>
     </row>
     <row r="47" spans="2:29" ht="15" thickTop="1">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q47" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R47" s="11" t="s">
+      <c r="Q47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R47" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S47" s="10" t="s">
+      <c r="S47" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V47" s="10" t="s">
+      <c r="V47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="X47" s="10" t="s">
+      <c r="W47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA47" s="10" t="s">
+      <c r="AA47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB47" s="11" t="s">
+      <c r="AB47" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AC47" s="10" t="s">
+      <c r="AC47" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8537,7 +8596,7 @@
       <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D48" t="s">
@@ -8546,7 +8605,7 @@
       <c r="G48" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I48" t="s">
@@ -8555,7 +8614,7 @@
       <c r="L48" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="6" t="s">
         <v>103</v>
       </c>
       <c r="N48" t="s">
@@ -8564,7 +8623,7 @@
       <c r="Q48" t="s">
         <v>52</v>
       </c>
-      <c r="R48" s="8" t="s">
+      <c r="R48" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S48" t="s">
@@ -8573,7 +8632,7 @@
       <c r="V48" t="s">
         <v>63</v>
       </c>
-      <c r="W48" s="8" t="s">
+      <c r="W48" s="6" t="s">
         <v>66</v>
       </c>
       <c r="X48" t="s">
@@ -8582,7 +8641,7 @@
       <c r="AA48" t="s">
         <v>83</v>
       </c>
-      <c r="AB48" s="8" t="s">
+      <c r="AB48" s="6" t="s">
         <v>85</v>
       </c>
       <c r="AC48" t="s">
@@ -8593,7 +8652,7 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D49" t="s">
@@ -8602,7 +8661,7 @@
       <c r="G49" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>75</v>
       </c>
       <c r="I49" t="s">
@@ -8611,7 +8670,7 @@
       <c r="L49" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N49" t="s">
@@ -8620,7 +8679,7 @@
       <c r="Q49" t="s">
         <v>64</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="S49" t="s">
@@ -8629,7 +8688,7 @@
       <c r="V49" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="8" t="s">
+      <c r="W49" s="6" t="s">
         <v>73</v>
       </c>
       <c r="X49" t="s">
@@ -8638,7 +8697,7 @@
       <c r="AA49" t="s">
         <v>21</v>
       </c>
-      <c r="AB49" s="8" t="s">
+      <c r="AB49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AC49" t="s">
@@ -8649,7 +8708,7 @@
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D50" t="s">
@@ -8658,7 +8717,7 @@
       <c r="G50" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I50" t="s">
@@ -8667,7 +8726,7 @@
       <c r="L50" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="6" t="s">
         <v>63</v>
       </c>
       <c r="N50" t="s">
@@ -8676,7 +8735,7 @@
       <c r="Q50" t="s">
         <v>29</v>
       </c>
-      <c r="R50" s="8" t="s">
+      <c r="R50" s="6" t="s">
         <v>29</v>
       </c>
       <c r="S50" t="s">
@@ -8685,7 +8744,7 @@
       <c r="V50" t="s">
         <v>86</v>
       </c>
-      <c r="W50" s="8" t="s">
+      <c r="W50" s="6" t="s">
         <v>36</v>
       </c>
       <c r="X50" t="s">
@@ -8694,7 +8753,7 @@
       <c r="AA50" t="s">
         <v>29</v>
       </c>
-      <c r="AB50" s="8" t="s">
+      <c r="AB50" s="6" t="s">
         <v>81</v>
       </c>
       <c r="AC50" t="s">
@@ -8705,7 +8764,7 @@
       <c r="B51" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D51" t="s">
@@ -8714,7 +8773,7 @@
       <c r="G51" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I51" t="s">
@@ -8723,7 +8782,7 @@
       <c r="L51" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N51" t="s">
@@ -8732,7 +8791,7 @@
       <c r="Q51" t="s">
         <v>72</v>
       </c>
-      <c r="R51" s="8" t="s">
+      <c r="R51" s="6" t="s">
         <v>30</v>
       </c>
       <c r="S51" t="s">
@@ -8741,7 +8800,7 @@
       <c r="V51" t="s">
         <v>25</v>
       </c>
-      <c r="W51" s="8" t="s">
+      <c r="W51" s="6" t="s">
         <v>82</v>
       </c>
       <c r="X51" t="s">
@@ -8750,7 +8809,7 @@
       <c r="AA51" t="s">
         <v>52</v>
       </c>
-      <c r="AB51" s="8" t="s">
+      <c r="AB51" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AC51" t="s">
@@ -8761,7 +8820,7 @@
       <c r="B52" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
@@ -8770,7 +8829,7 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I52" t="s">
@@ -8779,7 +8838,7 @@
       <c r="L52" t="s">
         <v>82</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="6" t="s">
         <v>46</v>
       </c>
       <c r="N52" t="s">
@@ -8788,7 +8847,7 @@
       <c r="Q52" t="s">
         <v>68</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="S52" t="s">
@@ -8797,7 +8856,7 @@
       <c r="V52" t="s">
         <v>23</v>
       </c>
-      <c r="W52" s="8" t="s">
+      <c r="W52" s="6" t="s">
         <v>79</v>
       </c>
       <c r="X52" t="s">
@@ -8806,7 +8865,7 @@
       <c r="AA52" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="8" t="s">
+      <c r="AB52" s="6" t="s">
         <v>56</v>
       </c>
       <c r="AC52" t="s">
@@ -8817,7 +8876,7 @@
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D53" t="s">
@@ -8826,7 +8885,7 @@
       <c r="G53" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I53" t="s">
@@ -8835,7 +8894,7 @@
       <c r="L53" t="s">
         <v>41</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="6" t="s">
         <v>65</v>
       </c>
       <c r="N53" t="s">
@@ -8844,7 +8903,7 @@
       <c r="Q53" t="s">
         <v>41</v>
       </c>
-      <c r="R53" s="8" t="s">
+      <c r="R53" s="6" t="s">
         <v>38</v>
       </c>
       <c r="S53" t="s">
@@ -8853,7 +8912,7 @@
       <c r="V53" t="s">
         <v>38</v>
       </c>
-      <c r="W53" s="8" t="s">
+      <c r="W53" s="6" t="s">
         <v>54</v>
       </c>
       <c r="X53" t="s">
@@ -8862,7 +8921,7 @@
       <c r="AA53" t="s">
         <v>38</v>
       </c>
-      <c r="AB53" s="8" t="s">
+      <c r="AB53" s="6" t="s">
         <v>29</v>
       </c>
       <c r="AC53" t="s">
@@ -8873,7 +8932,7 @@
       <c r="B54" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D54" t="s">
@@ -8882,7 +8941,7 @@
       <c r="G54" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I54" t="s">
@@ -8891,7 +8950,7 @@
       <c r="L54" t="s">
         <v>70</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N54" t="s">
@@ -8900,7 +8959,7 @@
       <c r="Q54" t="s">
         <v>103</v>
       </c>
-      <c r="R54" s="8" t="s">
+      <c r="R54" s="6" t="s">
         <v>108</v>
       </c>
       <c r="S54" t="s">
@@ -8909,7 +8968,7 @@
       <c r="V54" t="s">
         <v>65</v>
       </c>
-      <c r="W54" s="8" t="s">
+      <c r="W54" s="6" t="s">
         <v>102</v>
       </c>
       <c r="X54" t="s">
@@ -8918,7 +8977,7 @@
       <c r="AA54" t="s">
         <v>30</v>
       </c>
-      <c r="AB54" s="8" t="s">
+      <c r="AB54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="AC54" t="s">
@@ -8929,7 +8988,7 @@
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D55" t="s">
@@ -8938,7 +8997,7 @@
       <c r="G55" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I55" t="s">
@@ -8947,7 +9006,7 @@
       <c r="L55" t="s">
         <v>31</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N55" t="s">
@@ -8956,7 +9015,7 @@
       <c r="Q55" t="s">
         <v>76</v>
       </c>
-      <c r="R55" s="8" t="s">
+      <c r="R55" s="6" t="s">
         <v>21</v>
       </c>
       <c r="S55" t="s">
@@ -8965,7 +9024,7 @@
       <c r="V55" t="s">
         <v>37</v>
       </c>
-      <c r="W55" s="8" t="s">
+      <c r="W55" s="6" t="s">
         <v>24</v>
       </c>
       <c r="X55" t="s">
@@ -8974,7 +9033,7 @@
       <c r="AA55" t="s">
         <v>63</v>
       </c>
-      <c r="AB55" s="8" t="s">
+      <c r="AB55" s="6" t="s">
         <v>66</v>
       </c>
       <c r="AC55" t="s">
@@ -8982,50 +9041,50 @@
       </c>
     </row>
     <row r="58" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:29">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:29">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:29">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="63" spans="1:29">
       <c r="B63" t="s">
@@ -9104,7 +9163,7 @@
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>0.125</v>
       </c>
       <c r="C65">
@@ -9172,7 +9231,7 @@
       <c r="F66">
         <v>0.1875</v>
       </c>
-      <c r="G66" s="9"/>
+      <c r="G66" s="7"/>
       <c r="J66">
         <v>0.125</v>
       </c>
@@ -9207,10 +9266,10 @@
       </c>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="7">
         <f>SUM(B66:B67)</f>
         <v>0.84375</v>
       </c>
@@ -9221,7 +9280,7 @@
         <f>ABS(B68-C68)</f>
         <v>0.15625</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="7">
         <f>SUM(F66:F67)</f>
         <v>0.71875</v>
       </c>
@@ -9232,7 +9291,7 @@
         <f>ABS(F68-G68)</f>
         <v>0.28125</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="7">
         <f>SUM(J66:J67)</f>
         <v>0.40625</v>
       </c>
@@ -9243,7 +9302,7 @@
         <f>ABS(J68-K68)</f>
         <v>0.59375</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="7">
         <f>SUM(N66:N67)</f>
         <v>1.8125</v>
       </c>
@@ -9254,7 +9313,7 @@
         <f>ABS(N68-O68)</f>
         <v>0.1875</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68" s="7">
         <f>SUM(R66:R67)</f>
         <v>1</v>
       </c>
@@ -9265,7 +9324,7 @@
         <f>ABS(R68-S68)</f>
         <v>0</v>
       </c>
-      <c r="V68" s="9">
+      <c r="V68" s="7">
         <f>SUM(V66:V67)</f>
         <v>1.25</v>
       </c>
@@ -9338,10 +9397,10 @@
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="7">
         <f>SUM(B69:B71)</f>
         <v>1.09375</v>
       </c>
@@ -9352,7 +9411,7 @@
         <f>ABS(B72-C72)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="7">
         <f>SUM(F69:F71)</f>
         <v>1.46875</v>
       </c>
@@ -9363,7 +9422,7 @@
         <f>ABS(F72-G72)</f>
         <v>0.46875</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="7">
         <f>SUM(J69:J71)</f>
         <v>0.28125</v>
       </c>
@@ -9374,7 +9433,7 @@
         <f>ABS(J72-K72)</f>
         <v>0.28125</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="7">
         <f>SUM(N69:N71)</f>
         <v>0.84375</v>
       </c>
@@ -9385,7 +9444,7 @@
         <f>ABS(N72-O72)</f>
         <v>0.84375</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72" s="7">
         <f>SUM(R69:R71)</f>
         <v>2.125</v>
       </c>
@@ -9396,7 +9455,7 @@
         <f>ABS(R72-S72)</f>
         <v>0.125</v>
       </c>
-      <c r="V72" s="9">
+      <c r="V72" s="7">
         <f>SUM(V69:V71)</f>
         <v>0.75</v>
       </c>
@@ -9492,10 +9551,10 @@
       </c>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="7">
         <f>SUM(B73:B76)</f>
         <v>1.75</v>
       </c>
@@ -9506,7 +9565,7 @@
         <f>ABS(B77-C77)</f>
         <v>0.25</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="7">
         <f>SUM(F73:F76)</f>
         <v>1.375</v>
       </c>
@@ -9517,7 +9576,7 @@
         <f>ABS(F77-G77)</f>
         <v>0.625</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="7">
         <f>SUM(J73:J76)</f>
         <v>1.09375</v>
       </c>
@@ -9528,7 +9587,7 @@
         <f>ABS(J77-K77)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="7">
         <f>SUM(N73:N76)</f>
         <v>2.53125</v>
       </c>
@@ -9539,7 +9598,7 @@
         <f>ABS(N77-O77)</f>
         <v>0.53125</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77" s="7">
         <f>SUM(R73:R76)</f>
         <v>2.125</v>
       </c>
@@ -9550,7 +9609,7 @@
         <f>ABS(R77-S77)</f>
         <v>0.125</v>
       </c>
-      <c r="V77" s="9">
+      <c r="V77" s="7">
         <f>SUM(V73:V76)</f>
         <v>0.6875</v>
       </c>
@@ -9667,10 +9726,10 @@
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="7">
         <f>SUM(B78:B82)</f>
         <v>0.90625</v>
       </c>
@@ -9681,7 +9740,7 @@
         <f>B83-C83</f>
         <v>0.90625</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="7">
         <f>SUM(F78:F82)</f>
         <v>2.09375</v>
       </c>
@@ -9692,7 +9751,7 @@
         <f>ABS(F83-G83)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="7">
         <f>SUM(J78:J82)</f>
         <v>2.71875</v>
       </c>
@@ -9703,7 +9762,7 @@
         <f>ABS(J83-K83)</f>
         <v>0.28125</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="7">
         <f>SUM(N78:N82)</f>
         <v>1.90625</v>
       </c>
@@ -9714,7 +9773,7 @@
         <f>ABS(N83-O83)</f>
         <v>0.90625</v>
       </c>
-      <c r="R83" s="9">
+      <c r="R83" s="7">
         <f>SUM(R78:R82)</f>
         <v>0.75</v>
       </c>
@@ -9725,7 +9784,7 @@
         <f>ABS(R83-S83)</f>
         <v>0.25</v>
       </c>
-      <c r="V83" s="9">
+      <c r="V83" s="7">
         <f>SUM(V78:V82)</f>
         <v>1.625</v>
       </c>
@@ -9858,10 +9917,10 @@
       </c>
     </row>
     <row r="90" spans="1:24">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="7">
         <f>SUM(B84:B89)</f>
         <v>2</v>
       </c>
@@ -9872,7 +9931,7 @@
         <f>B90-C90</f>
         <v>0</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="7">
         <f>SUM(F84:F89)</f>
         <v>3.46875</v>
       </c>
@@ -9883,7 +9942,7 @@
         <f>ABS(F90-G90)</f>
         <v>0.53125</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="7">
         <f>SUM(J84:J89)</f>
         <v>2.65625</v>
       </c>
@@ -9894,7 +9953,7 @@
         <f>ABS(J90-K90)</f>
         <v>0.34375</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90" s="7">
         <f>SUM(N84:N89)</f>
         <v>1.46875</v>
       </c>
@@ -9905,7 +9964,7 @@
         <f>ABS(N90-O90)</f>
         <v>0.46875</v>
       </c>
-      <c r="R90" s="9">
+      <c r="R90" s="7">
         <f>SUM(R84:R89)</f>
         <v>2.1875</v>
       </c>
@@ -9916,7 +9975,7 @@
         <f>ABS(R90-S90)</f>
         <v>0.1875</v>
       </c>
-      <c r="V90" s="9">
+      <c r="V90" s="7">
         <f>SUM(V84:V89)</f>
         <v>1.40625</v>
       </c>
@@ -10069,10 +10128,10 @@
       </c>
     </row>
     <row r="98" spans="1:24">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="7">
         <f>SUM(B91:B97)</f>
         <v>1.6875</v>
       </c>
@@ -10083,7 +10142,7 @@
         <f>B98-C98</f>
         <v>1.6875</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="7">
         <f>SUM(F91:F97)</f>
         <v>2.46875</v>
       </c>
@@ -10094,7 +10153,7 @@
         <f>ABS(F98-G98)</f>
         <v>0.53125</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="7">
         <f>SUM(J91:J97)</f>
         <v>3.09375</v>
       </c>
@@ -10105,7 +10164,7 @@
         <f>ABS(J98-K98)</f>
         <v>1.09375</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="7">
         <f>SUM(N91:N97)</f>
         <v>1.8125</v>
       </c>
@@ -10116,7 +10175,7 @@
         <f>ABS(N98-O98)</f>
         <v>0.8125</v>
       </c>
-      <c r="R98" s="9">
+      <c r="R98" s="7">
         <f>SUM(R91:R97)</f>
         <v>1.90625</v>
       </c>
@@ -10127,7 +10186,7 @@
         <f>ABS(R98-S98)</f>
         <v>0.90625</v>
       </c>
-      <c r="V98" s="9">
+      <c r="V98" s="7">
         <f>SUM(V91:V97)</f>
         <v>2.125</v>
       </c>
@@ -10300,10 +10359,10 @@
       </c>
     </row>
     <row r="107" spans="1:24">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="7">
         <f>SUM(B99:B106)</f>
         <v>1.90625</v>
       </c>
@@ -10314,7 +10373,7 @@
         <f>ABS(B107-C107)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="7">
         <f>SUM(F99:F106)</f>
         <v>4.09375</v>
       </c>
@@ -10325,7 +10384,7 @@
         <f>ABS(F107-G107)</f>
         <v>9.375E-2</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J107" s="7">
         <f>SUM(J99:J106)</f>
         <v>2.1875</v>
       </c>
@@ -10336,7 +10395,7 @@
         <f>ABS(J107-K107)</f>
         <v>0.1875</v>
       </c>
-      <c r="N107" s="9">
+      <c r="N107" s="7">
         <f>SUM(N99:N106)</f>
         <v>3.5625</v>
       </c>
@@ -10347,7 +10406,7 @@
         <f>ABS(N107-O107)</f>
         <v>1.5625</v>
       </c>
-      <c r="R107" s="9">
+      <c r="R107" s="7">
         <f>SUM(R99:R106)</f>
         <v>2.0625</v>
       </c>
@@ -10358,7 +10417,7 @@
         <f>ABS(R107-S107)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="V107" s="9">
+      <c r="V107" s="7">
         <f>SUM(V99:V106)</f>
         <v>2.78125</v>
       </c>
@@ -10551,10 +10610,10 @@
       </c>
     </row>
     <row r="117" spans="1:24">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="7">
         <f>SUM(B108:B116)</f>
         <v>3.15625</v>
       </c>
@@ -10565,7 +10624,7 @@
         <f>B117-C117</f>
         <v>1.15625</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="7">
         <f>SUM(F108:F116)</f>
         <v>3</v>
       </c>
@@ -10576,7 +10635,7 @@
         <f>ABS(F117-G117)</f>
         <v>0</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J117" s="7">
         <f>SUM(J108:J116)</f>
         <v>3.96875</v>
       </c>
@@ -10587,7 +10646,7 @@
         <f>ABS(J117-K117)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="N117" s="9">
+      <c r="N117" s="7">
         <f>SUM(N108:N116)</f>
         <v>3.375</v>
       </c>
@@ -10598,7 +10657,7 @@
         <f>ABS(N117-O117)</f>
         <v>1.375</v>
       </c>
-      <c r="R117" s="9">
+      <c r="R117" s="7">
         <f>SUM(R108:R116)</f>
         <v>5.25</v>
       </c>
@@ -10609,7 +10668,7 @@
         <f>ABS(R117-S117)</f>
         <v>1.25</v>
       </c>
-      <c r="V117" s="9">
+      <c r="V117" s="7">
         <f>SUM(V108:V116)</f>
         <v>4.53125</v>
       </c>
@@ -10622,7 +10681,7 @@
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B119">
@@ -10668,7 +10727,7 @@
       <c r="D122" t="s">
         <v>92</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="10" t="s">
         <v>125</v>
       </c>
       <c r="F122" t="s">
@@ -10683,7 +10742,7 @@
       <c r="K122" t="s">
         <v>97</v>
       </c>
-      <c r="L122" s="12" t="s">
+      <c r="L122" s="10" t="s">
         <v>125</v>
       </c>
       <c r="M122" t="s">
@@ -10700,7 +10759,7 @@
       <c r="D123">
         <v>0.3125</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="10">
         <f t="shared" ref="E123:E132" si="0">AVERAGE(B123,C123,D123)</f>
         <v>0.26041666666666669</v>
       </c>
@@ -10717,7 +10776,7 @@
       <c r="K123">
         <v>0.28125</v>
       </c>
-      <c r="L123" s="12">
+      <c r="L123" s="10">
         <f>AVERAGE(I123,J123,K123)</f>
         <v>0.19791666666666666</v>
       </c>
@@ -10736,7 +10795,7 @@
       <c r="D124">
         <v>0.59375</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="10">
         <f t="shared" si="0"/>
         <v>0.34375</v>
       </c>
@@ -10753,7 +10812,7 @@
       <c r="K124">
         <v>0.25</v>
       </c>
-      <c r="L124" s="12">
+      <c r="L124" s="10">
         <f t="shared" ref="L124:L132" si="1">AVERAGE(I124,J124,K124)</f>
         <v>0.14583333333333334</v>
       </c>
@@ -10772,7 +10831,7 @@
       <c r="D125">
         <v>0.28125</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="10">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
@@ -10789,7 +10848,7 @@
       <c r="K125">
         <v>0.25</v>
       </c>
-      <c r="L125" s="12">
+      <c r="L125" s="10">
         <f t="shared" si="1"/>
         <v>0.40625</v>
       </c>
@@ -10808,7 +10867,7 @@
       <c r="D126">
         <v>9.375E-2</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="10">
         <f t="shared" si="0"/>
         <v>0.32291666666666669</v>
       </c>
@@ -10825,7 +10884,7 @@
       <c r="K126">
         <v>0.3125</v>
       </c>
-      <c r="L126" s="12">
+      <c r="L126" s="10">
         <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
@@ -10844,7 +10903,7 @@
       <c r="D127">
         <v>0.28125</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E127" s="10">
         <f t="shared" si="0"/>
         <v>0.42708333333333331</v>
       </c>
@@ -10861,7 +10920,7 @@
       <c r="K127">
         <v>0.625</v>
       </c>
-      <c r="L127" s="12">
+      <c r="L127" s="10">
         <f t="shared" si="1"/>
         <v>0.59375</v>
       </c>
@@ -10880,7 +10939,7 @@
       <c r="D128">
         <v>0.34375</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="10">
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
@@ -10897,7 +10956,7 @@
       <c r="K128">
         <v>0.40625</v>
       </c>
-      <c r="L128" s="12">
+      <c r="L128" s="10">
         <f t="shared" si="1"/>
         <v>0.35416666666666669</v>
       </c>
@@ -10916,7 +10975,7 @@
       <c r="D129">
         <v>1.09375</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="10">
         <f t="shared" si="0"/>
         <v>1.1041666666666667</v>
       </c>
@@ -10933,7 +10992,7 @@
       <c r="K129">
         <v>0.125</v>
       </c>
-      <c r="L129" s="12">
+      <c r="L129" s="10">
         <f t="shared" si="1"/>
         <v>0.61458333333333337</v>
       </c>
@@ -10952,7 +11011,7 @@
       <c r="D130">
         <v>0.1875</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="10">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -10969,7 +11028,7 @@
       <c r="K130">
         <v>0.78125</v>
       </c>
-      <c r="L130" s="12">
+      <c r="L130" s="10">
         <f t="shared" si="1"/>
         <v>0.80208333333333337</v>
       </c>
@@ -10988,7 +11047,7 @@
       <c r="D131">
         <v>3.125E-2</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <f t="shared" si="0"/>
         <v>0.39583333333333331</v>
       </c>
@@ -11005,7 +11064,7 @@
       <c r="K131">
         <v>0.15312500000000001</v>
       </c>
-      <c r="L131" s="12">
+      <c r="L131" s="10">
         <f t="shared" si="1"/>
         <v>0.92604166666666676</v>
       </c>
@@ -11015,46 +11074,46 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="15" thickTop="1">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="8">
         <f>SUM(B123:B131)</f>
         <v>4.46875</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="8">
         <f>SUM(C123:C131)</f>
         <v>2.96875</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="8">
         <f>SUM(D123:D131)</f>
         <v>3.21875</v>
       </c>
-      <c r="E132" s="13">
+      <c r="E132" s="11">
         <f t="shared" si="0"/>
         <v>3.5520833333333335</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="8">
         <f t="shared" si="3"/>
         <v>3.21875</v>
       </c>
-      <c r="I132" s="10">
+      <c r="I132" s="8">
         <f>SUM(I123:I131)</f>
         <v>6.9375</v>
       </c>
-      <c r="J132" s="10">
+      <c r="J132" s="8">
         <f>SUM(J123:J131)</f>
         <v>2.96875</v>
       </c>
-      <c r="K132" s="10">
+      <c r="K132" s="8">
         <f>SUM(K123:K131)</f>
         <v>3.1843750000000002</v>
       </c>
-      <c r="L132" s="13">
+      <c r="L132" s="11">
         <f t="shared" si="1"/>
         <v>4.3635416666666664</v>
       </c>
-      <c r="M132" s="10">
+      <c r="M132" s="8">
         <f t="shared" si="2"/>
         <v>3.1843750000000002</v>
       </c>

--- a/kartenabfolgen.xlsx
+++ b/kartenabfolgen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27218"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b45736fdd8bb3aa4/Laptop/Dokumente/ETH/Semester_3/Psychologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{B56B9E84-2BF3-40A1-9ED8-9B685CB58FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7683CE3-94AD-4E04-BBB8-6E63A114DE66}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{B56B9E84-2BF3-40A1-9ED8-9B685CB58FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F61AB0-16A7-492E-AAF8-9BE143C08C94}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8205E559-DC8E-4887-9D0D-0E0E7A555E88}"/>
+    <workbookView xWindow="7180" yWindow="0" windowWidth="12020" windowHeight="8170" xr2:uid="{8205E559-DC8E-4887-9D0D-0E0E7A555E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiel 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="129">
   <si>
     <t>Kartenabfolgen des ersten Spiels</t>
   </si>
@@ -421,13 +421,16 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Theoretische VP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +558,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,11 +581,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,143 +897,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CD17C3-C6F9-4521-8D53-460EA020F265}">
   <dimension ref="A1:BD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="35" workbookViewId="0">
-      <selection activeCell="S25" sqref="P21:S25"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="57" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:54" ht="14.45" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:54">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:54">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:54">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:54">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:54">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:54">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="12" spans="1:54">
-      <c r="A12" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:54">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -1193,9 +1196,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="14.45" customHeight="1">
-      <c r="B16" t="s">
-        <v>20</v>
+    <row r="16" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -1339,7 +1342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,310 +1634,310 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:55">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:55" ht="15">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="BA22" s="19"/>
-    </row>
-    <row r="23" spans="1:55" ht="15">
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="BA23" s="19"/>
-    </row>
-    <row r="24" spans="1:55" ht="15">
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="BA24" s="19"/>
-    </row>
-    <row r="25" spans="1:55" ht="15">
-      <c r="B25" s="15" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="BA22" s="12"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="BA23" s="12"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="BA24" s="12"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-    </row>
-    <row r="26" spans="1:55" ht="15">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:55">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:55" ht="15">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19" t="s">
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19" t="s">
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19" t="s">
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19" t="s">
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
-    </row>
-    <row r="29" spans="1:55" ht="15">
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R29" s="19" t="s">
+      <c r="R29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="19" t="s">
+      <c r="T29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U29" s="19" t="s">
+      <c r="U29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19" t="s">
+      <c r="V29" s="12"/>
+      <c r="W29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="X29" s="19" t="s">
+      <c r="X29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y29" s="19" t="s">
+      <c r="Y29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="Z29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA29" s="19" t="s">
+      <c r="AA29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AB29" s="19" t="s">
+      <c r="AB29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19" t="s">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AE29" s="19" t="s">
+      <c r="AE29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF29" s="19" t="s">
+      <c r="AF29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AG29" s="19" t="s">
+      <c r="AG29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH29" s="19" t="s">
+      <c r="AH29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AI29" s="19" t="s">
+      <c r="AI29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AJ29" s="19" t="s">
+      <c r="AJ29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19" t="s">
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="19" t="s">
+      <c r="AM29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AN29" s="19" t="s">
+      <c r="AN29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AO29" s="19" t="s">
+      <c r="AO29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AP29" s="19" t="s">
+      <c r="AP29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AQ29" s="19" t="s">
+      <c r="AQ29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AR29" s="19" t="s">
+      <c r="AR29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AS29" s="19" t="s">
+      <c r="AS29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19" t="s">
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AV29" s="19" t="s">
+      <c r="AV29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW29" s="19" t="s">
+      <c r="AW29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AX29" s="19" t="s">
+      <c r="AX29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AY29" s="19" t="s">
+      <c r="AY29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AZ29" s="19" t="s">
+      <c r="AZ29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BA29" s="19" t="s">
+      <c r="BA29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BB29" s="19" t="s">
+      <c r="BB29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BC29" s="19"/>
-    </row>
-    <row r="30" spans="1:55" ht="15">
+      <c r="BC29" s="12"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -1944,300 +1947,300 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19" t="s">
+      <c r="F30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="19" t="s">
+      <c r="M30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="19" t="s">
+      <c r="T30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U30" s="19" t="s">
+      <c r="U30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19" t="s">
+      <c r="V30" s="12"/>
+      <c r="W30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="19" t="s">
+      <c r="X30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y30" s="19" t="s">
+      <c r="Y30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Z30" s="19" t="s">
+      <c r="Z30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="19" t="s">
+      <c r="AA30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AB30" s="19" t="s">
+      <c r="AB30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19" t="s">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AE30" s="19" t="s">
+      <c r="AE30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AF30" s="19" t="s">
+      <c r="AF30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AG30" s="19" t="s">
+      <c r="AG30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AH30" s="19" t="s">
+      <c r="AH30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AI30" s="19" t="s">
+      <c r="AI30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AJ30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK30" s="20" t="s">
+      <c r="AJ30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AL30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM30" s="19" t="s">
+      <c r="AL30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AN30" s="19" t="s">
+      <c r="AN30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AO30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP30" s="19" t="s">
+      <c r="AO30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AQ30" s="19" t="s">
+      <c r="AQ30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AR30" s="19" t="s">
+      <c r="AR30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AS30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT30" s="19"/>
-      <c r="AU30" s="19" t="s">
+      <c r="AS30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AV30" s="19" t="s">
+      <c r="AV30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AW30" s="19" t="s">
+      <c r="AW30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AX30" s="19" t="s">
+      <c r="AX30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ30" s="19" t="s">
+      <c r="AY30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="BA30" s="19" t="s">
+      <c r="BA30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB30" s="19" t="s">
+      <c r="BB30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="BC30" s="19"/>
-    </row>
-    <row r="31" spans="1:55" ht="15">
+      <c r="BC30" s="12"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O31" s="19" t="s">
+      <c r="O31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19" t="s">
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="19" t="s">
+      <c r="R31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T31" s="19" t="s">
+      <c r="T31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="U31" s="19" t="s">
+      <c r="U31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="V31" s="20" t="s">
+      <c r="V31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="19" t="s">
+      <c r="W31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="19" t="s">
+      <c r="X31" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Y31" s="19" t="s">
+      <c r="Y31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Z31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA31" s="19" t="s">
+      <c r="Z31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AB31" s="19" t="s">
+      <c r="AB31" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE31" s="19" t="s">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AF31" s="19" t="s">
+      <c r="AF31" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG31" s="19" t="s">
+      <c r="AG31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AH31" s="19" t="s">
+      <c r="AH31" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AI31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ31" s="19" t="s">
+      <c r="AI31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19" t="s">
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AM31" s="19" t="s">
+      <c r="AM31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AN31" s="19" t="s">
+      <c r="AN31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AO31" s="19" t="s">
+      <c r="AO31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AP31" s="19" t="s">
+      <c r="AP31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AQ31" s="19" t="s">
+      <c r="AQ31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AR31" s="19" t="s">
+      <c r="AR31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AS31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT31" s="20" t="s">
+      <c r="AS31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AU31" s="19" t="s">
+      <c r="AU31" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AV31" s="19" t="s">
+      <c r="AV31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AW31" s="19" t="s">
+      <c r="AW31" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AX31" s="19" t="s">
+      <c r="AX31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AY31" s="19" t="s">
+      <c r="AY31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AZ31" s="19" t="s">
+      <c r="AZ31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BA31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB31" s="19" t="s">
+      <c r="BA31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB31" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BC31" s="19"/>
-    </row>
-    <row r="32" spans="1:55" ht="15">
+      <c r="BC31" s="12"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2247,170 +2250,170 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19" t="s">
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="R32" s="19" t="s">
+      <c r="R32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="S32" s="19" t="s">
+      <c r="S32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="19" t="s">
+      <c r="T32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="U32" s="19" t="s">
+      <c r="U32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19" t="s">
+      <c r="V32" s="12"/>
+      <c r="W32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="X32" s="19" t="s">
+      <c r="X32" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Y32" s="19" t="s">
+      <c r="Y32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Z32" s="19" t="s">
+      <c r="Z32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA32" s="19" t="s">
+      <c r="AA32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AB32" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC32" s="20" t="s">
+      <c r="AB32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AD32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE32" s="19" t="s">
+      <c r="AD32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AF32" s="19" t="s">
+      <c r="AF32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AG32" s="19" t="s">
+      <c r="AG32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AH32" s="19" t="s">
+      <c r="AH32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AI32" s="19" t="s">
+      <c r="AI32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AJ32" s="19" t="s">
+      <c r="AJ32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19" t="s">
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM32" s="19" t="s">
+      <c r="AM32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="19" t="s">
+      <c r="AN32" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AO32" s="19" t="s">
+      <c r="AO32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP32" s="19" t="s">
+      <c r="AP32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AQ32" s="19" t="s">
+      <c r="AQ32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AR32" s="19" t="s">
+      <c r="AR32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AS32" s="19" t="s">
+      <c r="AS32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19" t="s">
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AV32" s="19" t="s">
+      <c r="AV32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AW32" s="19" t="s">
+      <c r="AW32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AX32" s="19" t="s">
+      <c r="AX32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AY32" s="19" t="s">
+      <c r="AY32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AZ32" s="19" t="s">
+      <c r="AZ32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="BA32" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB32" s="19" t="s">
+      <c r="BA32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BC32" s="19"/>
-    </row>
-    <row r="34" spans="2:54">
-      <c r="B34" s="15" t="s">
+      <c r="BC32" s="12"/>
+    </row>
+    <row r="34" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="2:54">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="2:54">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
       <c r="AU36" s="4"/>
     </row>
-    <row r="37" spans="2:54">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
     </row>
-    <row r="38" spans="2:54">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>12</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:54">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>91</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:54">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>53</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:54">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>80</v>
       </c>
@@ -3026,28 +3029,28 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="2:54">
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="2:54">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="2:54">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="AU46" s="4"/>
     </row>
-    <row r="47" spans="2:54">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -3090,7 +3093,7 @@
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
     </row>
-    <row r="48" spans="2:54">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>80</v>
       </c>
@@ -3662,28 +3665,28 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:54" ht="28.5">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:54" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A55" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -3846,9 +3849,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:54">
-      <c r="B59" t="s">
-        <v>94</v>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>54</v>
@@ -3992,7 +3995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>53</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>80</v>
       </c>
@@ -4281,53 +4284,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:54">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:54">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="69" spans="1:54">
-      <c r="B69" s="13" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:54">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:54">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:54">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>95</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:54">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:54">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>94</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:54">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>53</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:54">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -4944,27 +4947,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:54">
-      <c r="B79" s="13" t="s">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-    </row>
-    <row r="80" spans="1:54">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="2:56">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="2:56">
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>95</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:56">
+    <row r="83" spans="2:56" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>12</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:56">
+    <row r="84" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:56">
+    <row r="85" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>53</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="2:56">
+    <row r="86" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>80</v>
       </c>
@@ -5565,27 +5568,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:56">
-      <c r="B89" s="13" t="s">
+    <row r="89" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="2:56">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="2:56">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="2:56">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="2:56" x14ac:dyDescent="0.35">
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B92" s="2" t="s">
         <v>95</v>
       </c>
@@ -5662,7 +5665,7 @@
       <c r="BC92" s="2"/>
       <c r="BD92" s="2"/>
     </row>
-    <row r="93" spans="2:56">
+    <row r="93" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -5809,7 +5812,7 @@
       </c>
       <c r="BD93" s="2"/>
     </row>
-    <row r="94" spans="2:56">
+    <row r="94" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B94" s="2" t="s">
         <v>20</v>
       </c>
@@ -5964,7 +5967,7 @@
       </c>
       <c r="BD94" s="2"/>
     </row>
-    <row r="95" spans="2:56">
+    <row r="95" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B95" s="2" t="s">
         <v>53</v>
       </c>
@@ -6119,7 +6122,7 @@
       </c>
       <c r="BD95" s="2"/>
     </row>
-    <row r="96" spans="2:56">
+    <row r="96" spans="2:56" x14ac:dyDescent="0.35">
       <c r="B96" s="2" t="s">
         <v>80</v>
       </c>
@@ -6299,172 +6302,172 @@
       <selection activeCell="P121" sqref="P121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="B8" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="L8" s="17" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="L8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="Q8" s="17" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="Q8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="V8" s="17" t="s">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="V8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="AA8" s="17" t="s">
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="AA8" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" thickBot="1">
+    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" thickTop="1">
+    <row r="12" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" thickBot="1">
+    <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickTop="1">
+    <row r="14" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1">
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="15" thickTop="1">
+    <row r="17" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="15" thickBot="1">
+    <row r="20" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="15" thickTop="1">
+    <row r="21" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>48</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="15" thickBot="1">
+    <row r="25" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="15" thickTop="1">
+    <row r="26" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>76</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="15" thickBot="1">
+    <row r="31" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="15" thickTop="1">
+    <row r="32" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -7808,7 +7811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -7920,7 +7923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:29" ht="15" thickBot="1">
+    <row r="38" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:29" ht="15" thickTop="1">
+    <row r="39" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:29">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:29">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>102</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>67</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>79</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:29" ht="15" thickBot="1">
+    <row r="46" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:29" ht="15" thickTop="1">
+    <row r="47" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>84</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>38</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>21</v>
       </c>
@@ -8760,7 +8763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>32</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>79</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>29</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>31</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>29</v>
       </c>
@@ -9040,53 +9043,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="1:29">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:29">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:29">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>20</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>110</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>0.125</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0.25</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>0.59375</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>113</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0.65625</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>0.34375</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>9.375E-2</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>114</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>0.71875</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>0.9375</v>
       </c>
@@ -9510,7 +9513,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>3.125E-2</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>6.25E-2</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>116</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>6.25E-2</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0.25</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>0.5</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>9.375E-2</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>117</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0.375</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>0.125</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0.40625</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>0.28125</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>0.4375</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>0.375</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>118</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>0.15625</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0.1875</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>0.21875</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>3.125E-2</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>0.5</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>0.34375</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>0.25</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>119</v>
       </c>
@@ -10198,7 +10201,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>9.375E-2</v>
       </c>
@@ -10218,7 +10221,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0.25</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>0.1875</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>0.21875</v>
       </c>
@@ -10278,7 +10281,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>0.53125</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>0.4375</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>0</v>
       </c>
@@ -10338,7 +10341,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>0.1875</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>120</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>0.125</v>
       </c>
@@ -10449,7 +10452,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>0.53125</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>0.71875</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>0.15625</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>9.375E-2</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>0.25</v>
       </c>
@@ -10549,7 +10552,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>0.28125</v>
       </c>
@@ -10569,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>0.9375</v>
       </c>
@@ -10589,7 +10592,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>6.25E-2</v>
       </c>
@@ -10609,7 +10612,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>121</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>1.53125</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>122</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>15.4375</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>123</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>20</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>0.125</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>0.15625</v>
       </c>
@@ -10821,7 +10824,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>9.375E-2</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>0.25</v>
       </c>
@@ -10893,7 +10896,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>0.90625</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>0</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>1.6875</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>9.375E-2</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" thickBot="1">
+    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>1.15625</v>
       </c>
@@ -11073,7 +11076,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" thickTop="1">
+    <row r="132" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>127</v>
       </c>
